--- a/GATEWAY/A1#111#PLUSINNOVATIONSRLXX/PLUSINNOVATIONSRL/C2WEBRIS/1.0.0.20/report-checklist.xlsx
+++ b/GATEWAY/A1#111#PLUSINNOVATIONSRLXX/PLUSINNOVATIONSRL/C2WEBRIS/1.0.0.20/report-checklist.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13230" tabRatio="307" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13230" tabRatio="314" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Istruzioni Compilazione" sheetId="1" r:id="rId1"/>
@@ -800,15 +800,6 @@
     <t>subject_application_version: 1.0.0.20</t>
   </si>
   <si>
-    <t>2024-05-12T11:41:29</t>
-  </si>
-  <si>
-    <t>a9710c63c87c33dd</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.160.4.4.a0c66c4cd0322cd985325a773d6ef47835a062a5a8ee2d01daaf1f48b9770f2b.7023221641^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>Per l' applicativo C2WEBRIS non è gestita la sezione "Conclusioni"</t>
   </si>
   <si>
@@ -896,15 +887,6 @@
 Continuare comunque con la generazione del referto?</t>
   </si>
   <si>
-    <t>2024-05-14T11:25:56</t>
-  </si>
-  <si>
-    <t>71adb087acaf0680</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.160.4.4.4bcdc32ab72649a300395dcb8d8adaa6d74303ce411f09a248600ba6894d36b0.9ef9b3ceda^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>Per l' applicativo C2WEBRIS il campo "action_id" è sempre valorizzato con il valore corretto "CREATE" o "UPDATE"</t>
   </si>
   <si>
@@ -914,28 +896,46 @@
     <t>Per l' applicativo C2WEBRIS è permessa la valorizzazione solo con i valori previsti per la  priorità</t>
   </si>
   <si>
-    <t>2024-05-14T16:04:15</t>
-  </si>
-  <si>
-    <t>fc273875135527f8</t>
-  </si>
-  <si>
-    <t>2024-05-14T17:51:37</t>
-  </si>
-  <si>
-    <t>7267911e122ef1d4</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.160.4.4.a0382b676dbe608ed640ba0918a6ee5bd34fbfa483a233f59bcc7d3809f9e588.96c598fd0c^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2024-05-14T17:58:22</t>
-  </si>
-  <si>
-    <t>f76ebbdeb6f38d52</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.160.4.4.b3851136876a886f8309d81faf1b8ff6be3b22a3e4a7ae3527e26a84f71ad655.039ec2471f^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2024-05-15T19:08:49</t>
+  </si>
+  <si>
+    <t>6f05d5b5b60e07dc</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.160.4.4.ce4266f204697c4ad9c327438b9f6539376fec88d1e404accfce535562eb8cd4.098bc0a4bf^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2024-05-16T10:17:24</t>
+  </si>
+  <si>
+    <t>64c96bba90f2b4e5</t>
+  </si>
+  <si>
+    <t>2024-05-16T10:23:51</t>
+  </si>
+  <si>
+    <t>53bfbbb658f9e819</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.160.4.4.c283785979daf4039c9f0b3905c6d2c77fbcec1a13b9ca70e61b91546477e06a.cbfe276fbb^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2024-05-16T10:28:45</t>
+  </si>
+  <si>
+    <t>48812c3456098c39</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.160.4.4.da12152ca8176901352f07c3e1e3d5899bd0f64644fff051818e939000c3ff91.49f07d1099^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2024-05-16T10:32:51</t>
+  </si>
+  <si>
+    <t>6bd13f0fad523bf8</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.160.4.4.0ae7ddde5b834efa61a13c4306631e3fb0f3dd159c80f83e27a17e8aa339dcb4.80ad0a8045^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
 </sst>
 </file>
@@ -3845,10 +3845,10 @@
   <dimension ref="A1:T653"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B31" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="H36" sqref="H36"/>
+      <selection pane="bottomRight" activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4121,16 +4121,16 @@
         <v>50</v>
       </c>
       <c r="F10" s="23">
-        <v>45424</v>
+        <v>45427</v>
       </c>
       <c r="G10" s="24" t="s">
-        <v>169</v>
+        <v>195</v>
       </c>
       <c r="H10" s="24" t="s">
-        <v>170</v>
+        <v>196</v>
       </c>
       <c r="I10" s="24" t="s">
-        <v>171</v>
+        <v>197</v>
       </c>
       <c r="J10" s="25" t="s">
         <v>68</v>
@@ -4172,7 +4172,7 @@
         <v>163</v>
       </c>
       <c r="K11" s="25" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="L11" s="25"/>
       <c r="M11" s="25"/>
@@ -4210,7 +4210,7 @@
         <v>163</v>
       </c>
       <c r="K12" s="25" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="L12" s="25"/>
       <c r="M12" s="25"/>
@@ -4248,7 +4248,7 @@
         <v>163</v>
       </c>
       <c r="K13" s="25" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="L13" s="25"/>
       <c r="M13" s="25"/>
@@ -4279,13 +4279,13 @@
         <v>63</v>
       </c>
       <c r="F14" s="23">
-        <v>45426</v>
+        <v>45428</v>
       </c>
       <c r="G14" s="24" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="H14" s="24" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="I14" s="24" t="s">
         <v>164</v>
@@ -4301,13 +4301,13 @@
         <v>68</v>
       </c>
       <c r="N14" s="25" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="O14" s="25" t="s">
         <v>68</v>
       </c>
       <c r="P14" s="25" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="Q14" s="25"/>
       <c r="R14" s="26"/>
@@ -4340,7 +4340,7 @@
         <v>163</v>
       </c>
       <c r="K15" s="25" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="L15" s="25"/>
       <c r="M15" s="25"/>
@@ -4385,13 +4385,13 @@
         <v>68</v>
       </c>
       <c r="N16" s="25" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="O16" s="25" t="s">
         <v>163</v>
       </c>
       <c r="P16" s="25" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="Q16" s="25"/>
       <c r="R16" s="26" t="s">
@@ -4426,7 +4426,7 @@
         <v>163</v>
       </c>
       <c r="K17" s="25" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="L17" s="25"/>
       <c r="M17" s="25"/>
@@ -4464,7 +4464,7 @@
         <v>163</v>
       </c>
       <c r="K18" s="25" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="L18" s="25"/>
       <c r="M18" s="25"/>
@@ -4502,7 +4502,7 @@
         <v>163</v>
       </c>
       <c r="K19" s="25" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="L19" s="25"/>
       <c r="M19" s="25"/>
@@ -4540,7 +4540,7 @@
         <v>163</v>
       </c>
       <c r="K20" s="25" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="L20" s="25"/>
       <c r="M20" s="25"/>
@@ -4578,7 +4578,7 @@
         <v>163</v>
       </c>
       <c r="K21" s="25" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="L21" s="25"/>
       <c r="M21" s="25"/>
@@ -4616,7 +4616,7 @@
         <v>163</v>
       </c>
       <c r="K22" s="25" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="L22" s="25"/>
       <c r="M22" s="25"/>
@@ -4647,16 +4647,16 @@
         <v>83</v>
       </c>
       <c r="F23" s="23">
-        <v>45426</v>
+        <v>45428</v>
       </c>
       <c r="G23" s="24" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="H23" s="24" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="I23" s="24" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="J23" s="25" t="s">
         <v>68</v>
@@ -4669,13 +4669,13 @@
         <v>68</v>
       </c>
       <c r="N23" s="25" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="O23" s="25" t="s">
         <v>68</v>
       </c>
       <c r="P23" s="25" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="Q23" s="25"/>
       <c r="R23" s="26"/>
@@ -4708,7 +4708,7 @@
         <v>163</v>
       </c>
       <c r="K24" s="25" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="L24" s="25"/>
       <c r="M24" s="25"/>
@@ -4746,7 +4746,7 @@
         <v>163</v>
       </c>
       <c r="K25" s="25" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="L25" s="25"/>
       <c r="M25" s="25"/>
@@ -4784,7 +4784,7 @@
         <v>163</v>
       </c>
       <c r="K26" s="25" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="L26" s="25"/>
       <c r="M26" s="25"/>
@@ -4822,7 +4822,7 @@
         <v>163</v>
       </c>
       <c r="K27" s="25" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="L27" s="25"/>
       <c r="M27" s="25"/>
@@ -4860,7 +4860,7 @@
         <v>163</v>
       </c>
       <c r="K28" s="25" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="L28" s="25"/>
       <c r="M28" s="25"/>
@@ -4898,7 +4898,7 @@
         <v>163</v>
       </c>
       <c r="K29" s="25" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="L29" s="25"/>
       <c r="M29" s="25"/>
@@ -4936,7 +4936,7 @@
         <v>163</v>
       </c>
       <c r="K30" s="25" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="L30" s="25"/>
       <c r="M30" s="25"/>
@@ -4974,7 +4974,7 @@
         <v>163</v>
       </c>
       <c r="K31" s="25" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="L31" s="25"/>
       <c r="M31" s="25"/>
@@ -5012,7 +5012,7 @@
         <v>163</v>
       </c>
       <c r="K32" s="25" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="L32" s="25"/>
       <c r="M32" s="25"/>
@@ -5050,7 +5050,7 @@
         <v>163</v>
       </c>
       <c r="K33" s="25" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="L33" s="25"/>
       <c r="M33" s="25"/>
@@ -5081,16 +5081,16 @@
         <v>105</v>
       </c>
       <c r="F34" s="23">
-        <v>45426</v>
+        <v>45428</v>
       </c>
       <c r="G34" s="24" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="H34" s="24" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="I34" s="24" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="J34" s="25" t="s">
         <v>68</v>
@@ -5103,13 +5103,13 @@
         <v>68</v>
       </c>
       <c r="N34" s="25" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="O34" s="25" t="s">
         <v>68</v>
       </c>
       <c r="P34" s="25" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="Q34" s="25"/>
       <c r="R34" s="26"/>
@@ -5142,7 +5142,7 @@
         <v>163</v>
       </c>
       <c r="K35" s="25" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="L35" s="25"/>
       <c r="M35" s="25"/>
@@ -5173,16 +5173,16 @@
         <v>109</v>
       </c>
       <c r="F36" s="23">
-        <v>45426</v>
+        <v>45428</v>
       </c>
       <c r="G36" s="24" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="H36" s="24" t="s">
-        <v>196</v>
+        <v>207</v>
       </c>
       <c r="I36" s="24" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="J36" s="25" t="s">
         <v>68</v>

--- a/GATEWAY/A1#111#PLUSINNOVATIONSRLXX/PLUSINNOVATIONSRL/C2WEBRIS/1.0.0.20/report-checklist.xlsx
+++ b/GATEWAY/A1#111#PLUSINNOVATIONSRLXX/PLUSINNOVATIONSRL/C2WEBRIS/1.0.0.20/report-checklist.xlsx
@@ -896,15 +896,6 @@
     <t>Per l' applicativo C2WEBRIS è permessa la valorizzazione solo con i valori previsti per la  priorità</t>
   </si>
   <si>
-    <t>2024-05-15T19:08:49</t>
-  </si>
-  <si>
-    <t>6f05d5b5b60e07dc</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.160.4.4.ce4266f204697c4ad9c327438b9f6539376fec88d1e404accfce535562eb8cd4.098bc0a4bf^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>2024-05-16T10:17:24</t>
   </si>
   <si>
@@ -936,6 +927,15 @@
   </si>
   <si>
     <t>2.16.840.1.113883.2.9.2.160.4.4.0ae7ddde5b834efa61a13c4306631e3fb0f3dd159c80f83e27a17e8aa339dcb4.80ad0a8045^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2024-05-17T10:10:59</t>
+  </si>
+  <si>
+    <t>10c5e0abda2d1785</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.160.4.4.2a3ad8bd95157ba842caf2b6212355c0896164448317bf6d9614b233946c44a7.7c15c1335f^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
 </sst>
 </file>
@@ -3848,7 +3848,7 @@
       <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="F36" sqref="F36"/>
+      <selection pane="bottomRight" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4121,16 +4121,16 @@
         <v>50</v>
       </c>
       <c r="F10" s="23">
-        <v>45427</v>
+        <v>45429</v>
       </c>
       <c r="G10" s="24" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="H10" s="24" t="s">
-        <v>196</v>
+        <v>207</v>
       </c>
       <c r="I10" s="24" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="J10" s="25" t="s">
         <v>68</v>
@@ -4282,10 +4282,10 @@
         <v>45428</v>
       </c>
       <c r="G14" s="24" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="H14" s="24" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="I14" s="24" t="s">
         <v>164</v>
@@ -4650,13 +4650,13 @@
         <v>45428</v>
       </c>
       <c r="G23" s="24" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="H23" s="24" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="I23" s="24" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="J23" s="25" t="s">
         <v>68</v>
@@ -5084,13 +5084,13 @@
         <v>45428</v>
       </c>
       <c r="G34" s="24" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="H34" s="24" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="I34" s="24" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="J34" s="25" t="s">
         <v>68</v>
@@ -5176,13 +5176,13 @@
         <v>45428</v>
       </c>
       <c r="G36" s="24" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="H36" s="24" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="I36" s="24" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="J36" s="25" t="s">
         <v>68</v>
